--- a/biology/Botanique/Opuntia_macrocentra/Opuntia_macrocentra.xlsx
+++ b/biology/Botanique/Opuntia_macrocentra/Opuntia_macrocentra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia Macrocentra
 Opuntia macrocentra est une plante de la famille des Cactacées, originaire des États-Unis (Texas, Arizona) et du Mexique (Chihuahua).
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cactus buissonnant à branches dressées dont les rameaux (raquettes) et sont de couleur violacée. Quelques aiguillons, très longs se dressent sur la partie supérieure de la raquette.
-Les fleurs sont jaunes à l'extérieur, jaunes et rouges à l'intérieur, et mesurent environ 7 cm de largeur. Elles durent deux jours. Le fruit est pourpre et mesure 6 cm[1].
+Les fleurs sont jaunes à l'extérieur, jaunes et rouges à l'intérieur, et mesurent environ 7 cm de largeur. Elles durent deux jours. Le fruit est pourpre et mesure 6 cm.
 </t>
         </is>
       </c>
